--- a/artfynd/A 35710-2020.xlsx
+++ b/artfynd/A 35710-2020.xlsx
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>93780109</v>
+        <v>93780103</v>
       </c>
       <c r="B3" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,21 +822,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>514735.4614743361</v>
+        <v>514951.9071987272</v>
       </c>
       <c r="R3" t="n">
-        <v>7128398.481273017</v>
+        <v>7128612.381918916</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -905,12 +905,12 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Sälg 20 cm</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -932,7 +932,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>93780113</v>
+        <v>93780107</v>
       </c>
       <c r="B4" t="n">
         <v>78570</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>514722.379480289</v>
+        <v>514951.2297003119</v>
       </c>
       <c r="R4" t="n">
-        <v>7128405.369368318</v>
+        <v>7128662.332798678</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,12 +1031,12 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Asp 40 cm i ungskogskant</t>
+          <t>Sälg 14 cm</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>93780103</v>
+        <v>93780105</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>4755</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1070,38 +1070,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>100857</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Robust tickgnagare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dorcatoma robusta</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Strand, 1938</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, väster om, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>514951.9071987272</v>
+        <v>514949.8194807628</v>
       </c>
       <c r="R5" t="n">
-        <v>7128612.381918916</v>
+        <v>7128684.044903031</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1146,6 +1151,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Kläckhål</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1157,12 +1167,12 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Sälg 20 cm</t>
+          <t>Björkhögstubbe 27 cm</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1184,7 +1194,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>93780114</v>
+        <v>93780108</v>
       </c>
       <c r="B6" t="n">
         <v>78569</v>
@@ -1224,10 +1234,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>514722.379480289</v>
+        <v>514951.2297003119</v>
       </c>
       <c r="R6" t="n">
-        <v>7128405.369368318</v>
+        <v>7128662.332798678</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1283,12 +1293,12 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Asp 40 cm i ungskogskant</t>
+          <t>Sälg 14 cm</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1310,10 +1320,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>93780112</v>
+        <v>93780106</v>
       </c>
       <c r="B7" t="n">
-        <v>78602</v>
+        <v>78596</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1326,21 +1336,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1350,10 +1360,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>514722.379480289</v>
+        <v>514951.2297003119</v>
       </c>
       <c r="R7" t="n">
-        <v>7128405.369368318</v>
+        <v>7128662.332798678</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1409,12 +1419,12 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Asp 40 cm i ungskogskant</t>
+          <t>Sälg 14 cm</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1436,10 +1446,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93780107</v>
+        <v>100241220</v>
       </c>
       <c r="B8" t="n">
-        <v>78570</v>
+        <v>4755</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1448,38 +1458,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>100857</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Robust tickgnagare</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Dorcatoma robusta</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>Strand, 1938</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, väster om, Jmt</t>
+          <t>Över-Gissmansvattnet 7, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>514951.2297003119</v>
+        <v>514883.5940140806</v>
       </c>
       <c r="R8" t="n">
-        <v>7128662.332798678</v>
+        <v>7128618.132361084</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1506,7 +1525,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1516,7 +1535,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1535,23 +1554,23 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
+          <t>Björkrik klen grannaturskog, myrholme</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Sälg 14 cm</t>
+          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
+          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
@@ -1562,10 +1581,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>93780105</v>
+        <v>100241188</v>
       </c>
       <c r="B9" t="n">
-        <v>4755</v>
+        <v>6251</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1574,43 +1593,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100857</v>
+        <v>100576</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Robust tickgnagare</t>
+          <t>Platt gångbagge</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dorcatoma robusta</t>
+          <t>Cerylon deplanatum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Strand, 1938</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+          <t>Gyllenhal, 1827</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, väster om, Jmt</t>
+          <t>Över-Gissmansvattnet 7, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>514949.8194807628</v>
+        <v>514883.5940140806</v>
       </c>
       <c r="R9" t="n">
-        <v>7128684.044903031</v>
+        <v>7128618.132361084</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1637,7 +1660,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1647,7 +1670,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1655,11 +1678,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Kläckhål</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1671,23 +1689,23 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
+          <t>Björkrik klen grannaturskog, myrholme</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Björkhögstubbe 27 cm</t>
+          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
+          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
@@ -1698,10 +1716,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>93780108</v>
+        <v>100241161</v>
       </c>
       <c r="B10" t="n">
-        <v>78569</v>
+        <v>9894</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1710,38 +1728,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Lunglav</t>
-        </is>
+        <v>100196</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Agathidium pallidum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Gyllenhal, 1827)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, väster om, Jmt</t>
+          <t>Över-Gissmansvattnet 7, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>514951.2297003119</v>
+        <v>514883.5940140806</v>
       </c>
       <c r="R10" t="n">
-        <v>7128662.332798678</v>
+        <v>7128618.132361084</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1768,7 +1790,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1778,7 +1800,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1797,23 +1819,23 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
+          <t>Björkrik klen grannaturskog, myrholme</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Sälg 14 cm</t>
+          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
+          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -1824,10 +1846,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>93780111</v>
+        <v>100513169</v>
       </c>
       <c r="B11" t="n">
-        <v>78503</v>
+        <v>11472</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1836,38 +1858,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6456</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Skinnlav</t>
-        </is>
+        <v>104446</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Scaphisoma subalpinum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>Reitter, 1880</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, väster om, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>514722.379480289</v>
+        <v>514883.5940140806</v>
       </c>
       <c r="R11" t="n">
-        <v>7128405.369368318</v>
+        <v>7128618.132361084</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1894,7 +1925,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1904,7 +1935,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1923,12 +1954,12 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
+          <t>Björkrik klen grannaturskog, myrholme</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Asp 40 cm i ungskogskant</t>
+          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1939,7 +1970,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
+          <t>Lars-Ove Wikars, Lars-Olof Grund, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -1950,10 +1981,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>93780106</v>
+        <v>100511716</v>
       </c>
       <c r="B12" t="n">
-        <v>78596</v>
+        <v>6475</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1962,38 +1993,52 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Stuplav</t>
-        </is>
+        <v>6002970</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Atomaria affinis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(F. Sahlberg, 1834)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, väster om, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>514951.2297003119</v>
+        <v>514883.5940140806</v>
       </c>
       <c r="R12" t="n">
-        <v>7128662.332798678</v>
+        <v>7128618.132361084</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2020,7 +2065,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2030,7 +2075,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-08-17</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2038,6 +2083,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ej typisk</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2049,12 +2099,17 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
+          <t>Björkrik klen grannaturskog, myrholme</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Sälg 14 cm</t>
+          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2065,7 +2120,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
+          <t>Lars-Ove Wikars, Lars-Olof Grund, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -2076,10 +2131,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>93927066</v>
+        <v>93927132</v>
       </c>
       <c r="B13" t="n">
-        <v>89403</v>
+        <v>78569</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2088,25 +2143,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1205</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2119,10 +2174,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>514851.8271727532</v>
+        <v>514966.7285534102</v>
       </c>
       <c r="R13" t="n">
-        <v>7128441.178533518</v>
+        <v>7128605.503718873</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2192,10 +2247,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>93927132</v>
+        <v>93780109</v>
       </c>
       <c r="B14" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2208,40 +2263,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Över-Gissmansvattnet, väster om, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>514966.7285534102</v>
+        <v>514735.4614743361</v>
       </c>
       <c r="R14" t="n">
-        <v>7128605.503718873</v>
+        <v>7128398.481273017</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2289,29 +2341,42 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Sälg</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Erland Lindblad, Lars-Ove Wikars</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr"/>
+          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>93927049</v>
+        <v>93780113</v>
       </c>
       <c r="B15" t="n">
-        <v>90174</v>
+        <v>78570</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2324,40 +2389,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2014</v>
+        <v>2081</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Över-Gissmansvattnet, väster om, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>514759.1905632199</v>
+        <v>514722.379480289</v>
       </c>
       <c r="R15" t="n">
-        <v>7128438.995470236</v>
+        <v>7128405.369368318</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2405,29 +2467,42 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Asp 40 cm i ungskogskant</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Erland Lindblad, Lars-Ove Wikars</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr"/>
+          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>93927000</v>
+        <v>93780114</v>
       </c>
       <c r="B16" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2440,41 +2515,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Över-Gissmansvattnet, väster om, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>514821.0772533696</v>
+        <v>514722.379480289</v>
       </c>
       <c r="R16" t="n">
-        <v>7128413.662325638</v>
+        <v>7128405.369368318</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2516,11 +2587,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2529,26 +2595,40 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Asp 40 cm i ungskogskant</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Erland Lindblad, Lars-Ove Wikars</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr"/>
+          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100241220</v>
+        <v>93780112</v>
       </c>
       <c r="B17" t="n">
-        <v>4755</v>
+        <v>78602</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2561,43 +2641,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100857</v>
+        <v>6463</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Robust tickgnagare</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dorcatoma robusta</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Strand, 1938</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet 7, Jmt</t>
+          <t>Över-Gissmansvattnet, väster om, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>514883.5940140806</v>
+        <v>514722.379480289</v>
       </c>
       <c r="R17" t="n">
-        <v>7128618.132361084</v>
+        <v>7128405.369368318</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2624,7 +2695,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2634,7 +2705,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2653,23 +2724,23 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Björkrik klen grannaturskog, myrholme</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
+          <t>Asp 40 cm i ungskogskant</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Lars-Olof Grund</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
+          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2680,10 +2751,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100241188</v>
+        <v>93780111</v>
       </c>
       <c r="B18" t="n">
-        <v>6251</v>
+        <v>78503</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2692,47 +2763,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100576</v>
+        <v>6456</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Platt gångbagge</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cerylon deplanatum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Gyllenhal, 1827</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet 7, Jmt</t>
+          <t>Över-Gissmansvattnet, väster om, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>514883.5940140806</v>
+        <v>514722.379480289</v>
       </c>
       <c r="R18" t="n">
-        <v>7128618.132361084</v>
+        <v>7128405.369368318</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2759,7 +2821,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2769,7 +2831,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2788,23 +2850,23 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Björkrik klen grannaturskog, myrholme</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
+          <t>Asp 40 cm i ungskogskant</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Lars-Olof Grund</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
+          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -2815,10 +2877,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100241161</v>
+        <v>93927066</v>
       </c>
       <c r="B19" t="n">
-        <v>9894</v>
+        <v>89403</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2827,45 +2889,44 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100196</v>
+        <v>1205</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Stor aspticka</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Agathidium pallidum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Gyllenhal, 1827)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet 7, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>514883.5940140806</v>
+        <v>514851.8271727532</v>
       </c>
       <c r="R19" t="n">
-        <v>7128618.132361084</v>
+        <v>7128441.178533518</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2889,7 +2950,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2899,7 +2960,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2913,42 +2974,29 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Björkrik klen grannaturskog, myrholme</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Lars-Olof Grund</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr">
-        <is>
-          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
-        </is>
-      </c>
+          <t>Erland Lindblad, Lars-Ove Wikars</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>100513169</v>
+        <v>93927049</v>
       </c>
       <c r="B20" t="n">
-        <v>11472</v>
+        <v>90174</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2961,46 +3009,40 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>104446</v>
+        <v>2014</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Koralltaggsvamp</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Scaphisoma subalpinum</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Reitter, 1880</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Pers.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>514883.5940140806</v>
+        <v>514759.1905632199</v>
       </c>
       <c r="R20" t="n">
-        <v>7128618.132361084</v>
+        <v>7128438.995470236</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3024,7 +3066,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3034,7 +3076,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3048,42 +3090,29 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>Björkrik klen grannaturskog, myrholme</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Lars-Olof Grund, Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr">
-        <is>
-          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
-        </is>
-      </c>
+          <t>Erland Lindblad, Lars-Ove Wikars</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100511716</v>
+        <v>93927000</v>
       </c>
       <c r="B21" t="n">
-        <v>6475</v>
+        <v>56395</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3096,51 +3125,41 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6002970</v>
+        <v>100109</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Atomaria affinis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(F. Sahlberg, 1834)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>514883.5940140806</v>
+        <v>514821.0772533696</v>
       </c>
       <c r="R21" t="n">
-        <v>7128618.132361084</v>
+        <v>7128413.662325638</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3164,7 +3183,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3174,7 +3193,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2021-08-17</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3184,7 +3203,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>ej typisk</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3195,38 +3214,19 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>Björkrik klen grannaturskog, myrholme</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
-        </is>
-      </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>Lars-Ove Wikars</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Lars-Olof Grund, Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
-        </is>
-      </c>
+          <t>Erland Lindblad, Lars-Ove Wikars</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 35710-2020.xlsx
+++ b/artfynd/A 35710-2020.xlsx
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>93780103</v>
+        <v>93780109</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,21 +822,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>514951.9071987272</v>
+        <v>514735.4614743361</v>
       </c>
       <c r="R3" t="n">
-        <v>7128612.381918916</v>
+        <v>7128398.481273017</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -905,12 +905,12 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Sälg 20 cm</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -932,7 +932,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>93780107</v>
+        <v>93780113</v>
       </c>
       <c r="B4" t="n">
         <v>78570</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>514951.2297003119</v>
+        <v>514722.379480289</v>
       </c>
       <c r="R4" t="n">
-        <v>7128662.332798678</v>
+        <v>7128405.369368318</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,12 +1031,12 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Sälg 14 cm</t>
+          <t>Asp 40 cm i ungskogskant</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>93780105</v>
+        <v>93780103</v>
       </c>
       <c r="B5" t="n">
-        <v>4755</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1070,43 +1070,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100857</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Robust tickgnagare</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dorcatoma robusta</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Strand, 1938</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, väster om, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>514949.8194807628</v>
+        <v>514951.9071987272</v>
       </c>
       <c r="R5" t="n">
-        <v>7128684.044903031</v>
+        <v>7128612.381918916</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1151,11 +1146,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Kläckhål</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1167,12 +1157,12 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Björkhögstubbe 27 cm</t>
+          <t>Sälg 20 cm</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1194,7 +1184,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>93780108</v>
+        <v>93780114</v>
       </c>
       <c r="B6" t="n">
         <v>78569</v>
@@ -1234,10 +1224,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>514951.2297003119</v>
+        <v>514722.379480289</v>
       </c>
       <c r="R6" t="n">
-        <v>7128662.332798678</v>
+        <v>7128405.369368318</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1293,12 +1283,12 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Sälg 14 cm</t>
+          <t>Asp 40 cm i ungskogskant</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1320,10 +1310,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>93780106</v>
+        <v>93780112</v>
       </c>
       <c r="B7" t="n">
-        <v>78596</v>
+        <v>78602</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1336,21 +1326,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>6463</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1360,10 +1350,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>514951.2297003119</v>
+        <v>514722.379480289</v>
       </c>
       <c r="R7" t="n">
-        <v>7128662.332798678</v>
+        <v>7128405.369368318</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1419,12 +1409,12 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Sälg 14 cm</t>
+          <t>Asp 40 cm i ungskogskant</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1446,10 +1436,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100241220</v>
+        <v>93780107</v>
       </c>
       <c r="B8" t="n">
-        <v>4755</v>
+        <v>78570</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1458,47 +1448,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100857</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Robust tickgnagare</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dorcatoma robusta</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Strand, 1938</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet 7, Jmt</t>
+          <t>Över-Gissmansvattnet, väster om, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>514883.5940140806</v>
+        <v>514951.2297003119</v>
       </c>
       <c r="R8" t="n">
-        <v>7128618.132361084</v>
+        <v>7128662.332798678</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1525,7 +1506,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1535,7 +1516,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1554,23 +1535,23 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Björkrik klen grannaturskog, myrholme</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
+          <t>Sälg 14 cm</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Lars-Olof Grund</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
+          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
@@ -1581,10 +1562,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100241188</v>
+        <v>93780105</v>
       </c>
       <c r="B9" t="n">
-        <v>6251</v>
+        <v>4755</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1593,47 +1574,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100576</v>
+        <v>100857</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Platt gångbagge</t>
+          <t>Robust tickgnagare</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cerylon deplanatum</t>
+          <t>Dorcatoma robusta</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Gyllenhal, 1827</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
+          <t>Strand, 1938</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet 7, Jmt</t>
+          <t>Över-Gissmansvattnet, väster om, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>514883.5940140806</v>
+        <v>514949.8194807628</v>
       </c>
       <c r="R9" t="n">
-        <v>7128618.132361084</v>
+        <v>7128684.044903031</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1660,7 +1637,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1670,7 +1647,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1678,6 +1655,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Kläckhål</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1689,23 +1671,23 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Björkrik klen grannaturskog, myrholme</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
+          <t>Björkhögstubbe 27 cm</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Lars-Olof Grund</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
+          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
@@ -1716,10 +1698,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100241161</v>
+        <v>93780108</v>
       </c>
       <c r="B10" t="n">
-        <v>9894</v>
+        <v>78569</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1728,42 +1710,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100196</v>
+        <v>6458</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Agathidium pallidum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Gyllenhal, 1827)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet 7, Jmt</t>
+          <t>Över-Gissmansvattnet, väster om, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>514883.5940140806</v>
+        <v>514951.2297003119</v>
       </c>
       <c r="R10" t="n">
-        <v>7128618.132361084</v>
+        <v>7128662.332798678</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1790,7 +1768,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1800,7 +1778,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1819,23 +1797,23 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Björkrik klen grannaturskog, myrholme</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
+          <t>Sälg 14 cm</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Lars-Olof Grund</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
+          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -1846,10 +1824,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100513169</v>
+        <v>93780111</v>
       </c>
       <c r="B11" t="n">
-        <v>11472</v>
+        <v>78503</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1858,47 +1836,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>104446</v>
+        <v>6456</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Skinnlav</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Scaphisoma subalpinum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Reitter, 1880</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Över-Gissmansvattnet, väster om, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>514883.5940140806</v>
+        <v>514722.379480289</v>
       </c>
       <c r="R11" t="n">
-        <v>7128618.132361084</v>
+        <v>7128405.369368318</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1925,7 +1894,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1935,7 +1904,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1954,12 +1923,12 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Björkrik klen grannaturskog, myrholme</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
+          <t>Asp 40 cm i ungskogskant</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1970,7 +1939,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Lars-Olof Grund, Erland Lindblad</t>
+          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -1981,10 +1950,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100511716</v>
+        <v>93780106</v>
       </c>
       <c r="B12" t="n">
-        <v>6475</v>
+        <v>78596</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1993,52 +1962,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6002970</v>
+        <v>6462</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Atomaria affinis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(F. Sahlberg, 1834)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Över-Gissmansvattnet, väster om, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>514883.5940140806</v>
+        <v>514951.2297003119</v>
       </c>
       <c r="R12" t="n">
-        <v>7128618.132361084</v>
+        <v>7128662.332798678</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2065,7 +2020,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2075,7 +2030,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-08-17</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2083,11 +2038,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ej typisk</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2099,17 +2049,12 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Björkrik klen grannaturskog, myrholme</t>
+          <t>Avverkningsanmäld myrholme med äldre lövrik barrskog, här försumpad</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Sälg 14 cm</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2120,7 +2065,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Lars-Olof Grund, Erland Lindblad</t>
+          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -2131,10 +2076,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>93927132</v>
+        <v>93927066</v>
       </c>
       <c r="B13" t="n">
-        <v>78569</v>
+        <v>89403</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2143,25 +2088,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>1205</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2174,10 +2119,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>514966.7285534102</v>
+        <v>514851.8271727532</v>
       </c>
       <c r="R13" t="n">
-        <v>7128605.503718873</v>
+        <v>7128441.178533518</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2247,10 +2192,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>93780109</v>
+        <v>93927132</v>
       </c>
       <c r="B14" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2263,37 +2208,40 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, väster om, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>514735.4614743361</v>
+        <v>514966.7285534102</v>
       </c>
       <c r="R14" t="n">
-        <v>7128398.481273017</v>
+        <v>7128605.503718873</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2341,42 +2289,29 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Sälg</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
-        </is>
-      </c>
+          <t>Erland Lindblad, Lars-Ove Wikars</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>93780113</v>
+        <v>93927049</v>
       </c>
       <c r="B15" t="n">
-        <v>78570</v>
+        <v>90174</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2389,37 +2324,40 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2081</v>
+        <v>2014</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, väster om, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>514722.379480289</v>
+        <v>514759.1905632199</v>
       </c>
       <c r="R15" t="n">
-        <v>7128405.369368318</v>
+        <v>7128438.995470236</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2467,42 +2405,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Asp 40 cm i ungskogskant</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
-        </is>
-      </c>
+          <t>Erland Lindblad, Lars-Ove Wikars</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>93780114</v>
+        <v>93927000</v>
       </c>
       <c r="B16" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2515,37 +2440,41 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, väster om, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>514722.379480289</v>
+        <v>514821.0772533696</v>
       </c>
       <c r="R16" t="n">
-        <v>7128405.369368318</v>
+        <v>7128413.662325638</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2587,6 +2516,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2595,40 +2529,26 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Asp 40 cm i ungskogskant</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
-        </is>
-      </c>
+          <t>Erland Lindblad, Lars-Ove Wikars</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>93780112</v>
+        <v>100241220</v>
       </c>
       <c r="B17" t="n">
-        <v>78602</v>
+        <v>4755</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2641,34 +2561,43 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6463</v>
+        <v>100857</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Robust tickgnagare</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Dorcatoma robusta</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>Strand, 1938</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, väster om, Jmt</t>
+          <t>Över-Gissmansvattnet 7, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>514722.379480289</v>
+        <v>514883.5940140806</v>
       </c>
       <c r="R17" t="n">
-        <v>7128405.369368318</v>
+        <v>7128618.132361084</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2695,7 +2624,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2705,7 +2634,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2724,23 +2653,23 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
+          <t>Björkrik klen grannaturskog, myrholme</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Asp 40 cm i ungskogskant</t>
+          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
+          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2751,10 +2680,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>93780111</v>
+        <v>100241188</v>
       </c>
       <c r="B18" t="n">
-        <v>78503</v>
+        <v>6251</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2763,38 +2692,47 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6456</v>
+        <v>100576</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Platt gångbagge</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Cerylon deplanatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>Gyllenhal, 1827</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, väster om, Jmt</t>
+          <t>Över-Gissmansvattnet 7, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>514722.379480289</v>
+        <v>514883.5940140806</v>
       </c>
       <c r="R18" t="n">
-        <v>7128405.369368318</v>
+        <v>7128618.132361084</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2821,7 +2759,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2831,7 +2769,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2850,23 +2788,23 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Avverkningsanmäld myrholme med äldre lövrik tallskog</t>
+          <t>Björkrik klen grannaturskog, myrholme</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Asp 40 cm i ungskogskant</t>
+          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Erland Lindblad, Lars-Olof Grund</t>
+          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -2877,10 +2815,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>93927066</v>
+        <v>100241161</v>
       </c>
       <c r="B19" t="n">
-        <v>89403</v>
+        <v>9894</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2889,44 +2827,45 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1205</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Stor aspticka</t>
-        </is>
+        <v>100196</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Agathidium pallidum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+          <t>(Gyllenhal, 1827)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Över-Gissmansvattnet 7, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>514851.8271727532</v>
+        <v>514883.5940140806</v>
       </c>
       <c r="R19" t="n">
-        <v>7128441.178533518</v>
+        <v>7128618.132361084</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2950,7 +2889,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2960,7 +2899,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2974,29 +2913,42 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Björkrik klen grannaturskog, myrholme</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Erland Lindblad, Lars-Ove Wikars</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr"/>
+          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>93927049</v>
+        <v>100513169</v>
       </c>
       <c r="B20" t="n">
-        <v>90174</v>
+        <v>11472</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3009,40 +2961,46 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Koralltaggsvamp</t>
-        </is>
+        <v>104446</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Scaphisoma subalpinum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+          <t>Reitter, 1880</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>514759.1905632199</v>
+        <v>514883.5940140806</v>
       </c>
       <c r="R20" t="n">
-        <v>7128438.995470236</v>
+        <v>7128618.132361084</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3066,7 +3024,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3076,7 +3034,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3090,29 +3048,42 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Björkrik klen grannaturskog, myrholme</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Erland Lindblad, Lars-Ove Wikars</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr"/>
+          <t>Lars-Ove Wikars, Lars-Olof Grund, Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>93927000</v>
+        <v>100511716</v>
       </c>
       <c r="B21" t="n">
-        <v>56395</v>
+        <v>6475</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3125,41 +3096,51 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett</t>
-        </is>
+        <v>6002970</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Atomaria affinis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+          <t>(F. Sahlberg, 1834)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>514821.0772533696</v>
+        <v>514883.5940140806</v>
       </c>
       <c r="R21" t="n">
-        <v>7128413.662325638</v>
+        <v>7128618.132361084</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3183,7 +3164,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3193,7 +3174,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-08-17</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3203,7 +3184,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>ej typisk</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3214,19 +3195,38 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Björkrik klen grannaturskog, myrholme</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>IBL-fälla björkhögstubbe med fnösketickor och låga</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>Lars-Ove Wikars</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Erland Lindblad, Lars-Ove Wikars</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr"/>
+          <t>Lars-Ove Wikars, Lars-Olof Grund, Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
